--- a/Test-Cases-URL.xlsx
+++ b/Test-Cases-URL.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE299BDD-323E-4C71-9B65-62E97FF1DAB5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="URL_Test_Cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,9 +36,177 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Requirement ID</t>
+  </si>
+  <si>
+    <t>Test Scenario ID</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>TC_URL_01</t>
+  </si>
+  <si>
+    <t>Application URL</t>
+  </si>
+  <si>
+    <t>FR_URL_01</t>
+  </si>
+  <si>
+    <t>TS_URL_01</t>
+  </si>
+  <si>
+    <t>Verify application launches using valid URL</t>
+  </si>
+  <si>
+    <t>Internet connection available</t>
+  </si>
+  <si>
+    <t>Valid URL</t>
+  </si>
+  <si>
+    <t>Application homepage loads successfully</t>
+  </si>
+  <si>
+    <t>Not Executed</t>
+  </si>
+  <si>
+    <t>TC_URL_02</t>
+  </si>
+  <si>
+    <t>FR_URL_02</t>
+  </si>
+  <si>
+    <t>TS_URL_02</t>
+  </si>
+  <si>
+    <t>Verify application launches in supported browsers</t>
+  </si>
+  <si>
+    <t>Browsers installed</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Application launches successfully in all browsers</t>
+  </si>
+  <si>
+    <t>TC_URL_03</t>
+  </si>
+  <si>
+    <t>FR_URL_03</t>
+  </si>
+  <si>
+    <t>TS_URL_03</t>
+  </si>
+  <si>
+    <t>Verify system behavior for invalid URL</t>
+  </si>
+  <si>
+    <t>Browser open</t>
+  </si>
+  <si>
+    <t>Invalid URL</t>
+  </si>
+  <si>
+    <t>Error page or browser error displayed</t>
+  </si>
+  <si>
+    <t>TC_URL_04</t>
+  </si>
+  <si>
+    <t>NFR_01</t>
+  </si>
+  <si>
+    <t>TS_URL_04</t>
+  </si>
+  <si>
+    <t>Verify homepage loads within acceptable time</t>
+  </si>
+  <si>
+    <t>Stable internet</t>
+  </si>
+  <si>
+    <t>Homepage loads within 3 seconds</t>
+  </si>
+  <si>
+    <t>TC_URL_05</t>
+  </si>
+  <si>
+    <t>NFR_04</t>
+  </si>
+  <si>
+    <t>TS_URL_05</t>
+  </si>
+  <si>
+    <t>Verify HTTP redirects to HTTPS</t>
+  </si>
+  <si>
+    <t>HTTP URL</t>
+  </si>
+  <si>
+    <t>Application redirects to HTTPS</t>
+  </si>
+  <si>
+    <t>1. Open browser
+ 2. Enter valid URL
+3. Press Enter</t>
+  </si>
+  <si>
+    <t>1. Open Chrome → Enter URL
+2. Open Firefox → Enter URL
+3. Open Edge → Enter URL</t>
+  </si>
+  <si>
+    <t>1. Enter invalid URL
+2. Press Enter</t>
+  </si>
+  <si>
+    <t>1. Enter valid URL
+2. Measure load time</t>
+  </si>
+  <si>
+    <t>1. Enter HTTP URL
+2. Observe address bar</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,13 +214,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +249,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,9 +597,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD6D3BF-43B2-46AE-8869-8724C02B6152}">
+  <dimension ref="A3:N8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A3:XFD3">
+    <cfRule type="expression" priority="1">
+      <formula>A2&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2" operator="notEqual">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4571448-FDFE-4F01-A516-0ABB06952D87}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Test-Cases-URL.xlsx
+++ b/Test-Cases-URL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b69f171f4aec32e/Documents/GithubProjects/Manual-Testing-E-commerce-Amazon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE299BDD-323E-4C71-9B65-62E97FF1DAB5}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{815BE7B0-3C72-4824-8212-FAF9C84139DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D10C595-C093-46A0-8D06-4DEF83FE1B59}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6E1B6E8A-1244-4A63-966D-B4892D0CED0D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>Application homepage loads successfully</t>
-  </si>
-  <si>
-    <t>Not Executed</t>
   </si>
   <si>
     <t>TC_URL_02</t>
@@ -599,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD6D3BF-43B2-46AE-8869-8724C02B6152}">
   <dimension ref="A3:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
@@ -688,141 +685,128 @@
         <v>19</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
         <v>39</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
         <v>44</v>
       </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>45</v>
-      </c>
-      <c r="I8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
